--- a/Clients/UCA/UCA-Manifests-Schedule_Update_Prod.xlsx
+++ b/Clients/UCA/UCA-Manifests-Schedule_Update_Prod.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1657DB1F-7252-4D61-B229-FE1C9FC7274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6A469-0387-49BD-A8EE-4DE9A1FF1B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Manifests-Schedule_Update" sheetId="32" r:id="rId1"/>
+    <sheet name="Update-ReportRequest" sheetId="32" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Manifests-Schedule_Update'!$A$1:$B$2</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Update-ReportRequest'!$A$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
